--- a/projects/paul-bley-wikified/paul-bley-discography.xlsx
+++ b/projects/paul-bley-wikified/paul-bley-discography.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/work/steve-tiddlywiki-github/designwritestudio.github.io/projects/paul-bley-wikified/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-7180" yWindow="-21600" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="-7180" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="albums" sheetId="1" r:id="rId1"/>
     <sheet name="years" sheetId="3" r:id="rId2"/>
     <sheet name="songs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -4739,6 +4747,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5070,7 +5083,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
@@ -5079,7 +5092,7 @@
     <col min="7" max="7" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5108,7 +5121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5138,7 +5151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -5168,7 +5181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5198,7 +5211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5228,7 +5241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5258,7 +5271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5288,7 +5301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5318,7 +5331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5348,7 +5361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5378,7 +5391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -5408,7 +5421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -5438,7 +5451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -5468,7 +5481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -5498,7 +5511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -5528,7 +5541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5558,7 +5571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -5618,7 +5631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -5648,7 +5661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -5678,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -5708,7 +5721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5738,7 +5751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -5768,7 +5781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -5798,7 +5811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -5828,7 +5841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -5858,7 +5871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -5888,7 +5901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -5918,7 +5931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5948,7 +5961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -5978,7 +5991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -6008,7 +6021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -6038,7 +6051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -6068,7 +6081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -6098,7 +6111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -6128,7 +6141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -6158,7 +6171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -6188,7 +6201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -6218,7 +6231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -6248,7 +6261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -6278,7 +6291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6308,7 +6321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -6338,7 +6351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -6368,7 +6381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -6398,7 +6411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -6428,7 +6441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -6458,7 +6471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -6488,7 +6501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -6518,7 +6531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -6548,7 +6561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +6621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -6638,7 +6651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -6668,7 +6681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -6698,7 +6711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -6728,7 +6741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -6758,7 +6771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -6788,7 +6801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -6818,7 +6831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -6848,7 +6861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -6878,7 +6891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -6908,7 +6921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -6938,7 +6951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -6998,7 +7011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -7028,7 +7041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -7058,7 +7071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -7118,7 +7131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -7148,7 +7161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -7178,7 +7191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -7208,7 +7221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -7238,7 +7251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -7268,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -7298,7 +7311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -7328,7 +7341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -7358,7 +7371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -7388,7 +7401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -7418,7 +7431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -7448,7 +7461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -7478,7 +7491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -7508,7 +7521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -7538,7 +7551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -7568,7 +7581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -7598,7 +7611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -7628,7 +7641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -7658,7 +7671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -7688,7 +7701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -7718,7 +7731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -7748,7 +7761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -7781,11 +7794,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7797,289 +7805,289 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1953</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1954</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1955</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1956</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1957</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1958</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1959</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1960</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1961</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1962</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1963</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1964</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1965</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1966</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1967</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1968</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1969</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1970</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1971</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1972</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1973</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1974</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1975</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1976</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1977</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1978</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1979</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1980</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1981</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1982</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1983</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1984</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1985</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1986</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1987</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1988</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1989</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1990</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1991</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1992</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1993</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1994</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1995</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1996</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1997</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1998</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1999</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2001</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2002</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2003</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2004</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2005</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2006</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2007</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2008</v>
       </c>
@@ -8087,11 +8095,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8103,13 +8106,13 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>392</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>392</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>392</v>
       </c>
@@ -8165,7 +8168,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>392</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>392</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>392</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>392</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>392</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>392</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>392</v>
       </c>
@@ -8263,7 +8266,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>392</v>
       </c>
@@ -8277,7 +8280,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -8291,7 +8294,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>392</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -8319,7 +8322,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>392</v>
       </c>
@@ -8333,7 +8336,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>392</v>
       </c>
@@ -8347,7 +8350,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>392</v>
       </c>
@@ -8361,7 +8364,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>392</v>
       </c>
@@ -8375,7 +8378,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>392</v>
       </c>
@@ -8389,7 +8392,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>392</v>
       </c>
@@ -8417,7 +8420,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>392</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -8445,7 +8448,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>392</v>
       </c>
@@ -8459,7 +8462,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>392</v>
       </c>
@@ -8473,7 +8476,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>392</v>
       </c>
@@ -8487,7 +8490,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>392</v>
       </c>
@@ -8501,7 +8504,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>392</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>392</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>392</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>392</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>392</v>
       </c>
@@ -8571,7 +8574,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>392</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>392</v>
       </c>
@@ -8599,7 +8602,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>392</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>392</v>
       </c>
@@ -8627,7 +8630,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>392</v>
       </c>
@@ -8641,7 +8644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>392</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -8669,7 +8672,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>392</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>392</v>
       </c>
@@ -8697,7 +8700,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>392</v>
       </c>
@@ -8711,7 +8714,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>392</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>392</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>392</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>392</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>392</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>392</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>392</v>
       </c>
@@ -8809,7 +8812,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>392</v>
       </c>
@@ -8823,7 +8826,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>392</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>392</v>
       </c>
@@ -8851,7 +8854,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>392</v>
       </c>
@@ -8865,7 +8868,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>392</v>
       </c>
@@ -8879,7 +8882,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>392</v>
       </c>
@@ -8893,7 +8896,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>392</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>392</v>
       </c>
@@ -8921,7 +8924,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>392</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>392</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>392</v>
       </c>
@@ -8963,7 +8966,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>392</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>392</v>
       </c>
@@ -8991,7 +8994,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>392</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>392</v>
       </c>
@@ -9019,7 +9022,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>392</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>392</v>
       </c>
@@ -9047,7 +9050,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>392</v>
       </c>
@@ -9061,7 +9064,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>392</v>
       </c>
@@ -9075,7 +9078,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>392</v>
       </c>
@@ -9089,7 +9092,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>392</v>
       </c>
@@ -9103,7 +9106,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>392</v>
       </c>
@@ -9117,7 +9120,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>392</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>392</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>392</v>
       </c>
@@ -9159,7 +9162,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>392</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>392</v>
       </c>
@@ -9187,7 +9190,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>392</v>
       </c>
@@ -9201,7 +9204,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>392</v>
       </c>
@@ -9215,7 +9218,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>392</v>
       </c>
@@ -9229,7 +9232,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>392</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>392</v>
       </c>
@@ -9257,7 +9260,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>392</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>392</v>
       </c>
@@ -9285,7 +9288,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>392</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>392</v>
       </c>
@@ -9313,7 +9316,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>392</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>392</v>
       </c>
@@ -9341,7 +9344,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>392</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>392</v>
       </c>
@@ -9369,7 +9372,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>392</v>
       </c>
@@ -9383,7 +9386,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>392</v>
       </c>
@@ -9397,7 +9400,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -9411,7 +9414,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>392</v>
       </c>
@@ -9425,7 +9428,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>392</v>
       </c>
@@ -9439,7 +9442,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>392</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>392</v>
       </c>
@@ -9467,7 +9470,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>392</v>
       </c>
@@ -9481,7 +9484,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>392</v>
       </c>
@@ -9495,7 +9498,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>392</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>392</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>392</v>
       </c>
@@ -9537,7 +9540,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>392</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>392</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>392</v>
       </c>
@@ -9579,7 +9582,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>392</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>392</v>
       </c>
@@ -9607,7 +9610,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>392</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>392</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>392</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>392</v>
       </c>
@@ -9663,7 +9666,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>392</v>
       </c>
@@ -9677,7 +9680,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>392</v>
       </c>
@@ -9691,7 +9694,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>392</v>
       </c>
@@ -9705,7 +9708,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>392</v>
       </c>
@@ -9719,7 +9722,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>392</v>
       </c>
@@ -9733,7 +9736,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>392</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>392</v>
       </c>
@@ -9761,7 +9764,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>392</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>392</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>392</v>
       </c>
@@ -9803,7 +9806,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>392</v>
       </c>
@@ -9817,7 +9820,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>392</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>392</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>392</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>392</v>
       </c>
@@ -9873,7 +9876,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>392</v>
       </c>
@@ -9887,7 +9890,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>392</v>
       </c>
@@ -9901,7 +9904,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>392</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>392</v>
       </c>
@@ -9929,7 +9932,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>392</v>
       </c>
@@ -9943,7 +9946,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>392</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>392</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>392</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>392</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>392</v>
       </c>
@@ -10013,7 +10016,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>392</v>
       </c>
@@ -10027,7 +10030,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>392</v>
       </c>
@@ -10041,7 +10044,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>392</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>392</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>392</v>
       </c>
@@ -10083,7 +10086,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>392</v>
       </c>
@@ -10097,7 +10100,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>392</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>392</v>
       </c>
@@ -10125,7 +10128,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>392</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>392</v>
       </c>
@@ -10153,7 +10156,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>392</v>
       </c>
@@ -10167,7 +10170,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>392</v>
       </c>
@@ -10181,7 +10184,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>392</v>
       </c>
@@ -10195,7 +10198,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>392</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>392</v>
       </c>
@@ -10223,7 +10226,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>392</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>392</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>392</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>392</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>392</v>
       </c>
@@ -10293,7 +10296,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>392</v>
       </c>
@@ -10307,7 +10310,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>392</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>392</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>392</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>392</v>
       </c>
@@ -10363,7 +10366,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>392</v>
       </c>
@@ -10377,7 +10380,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>392</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>392</v>
       </c>
@@ -10405,7 +10408,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>392</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>392</v>
       </c>
@@ -10433,7 +10436,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>392</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>392</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>392</v>
       </c>
@@ -10475,7 +10478,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>392</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>392</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>392</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>392</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>392</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>392</v>
       </c>
@@ -10559,7 +10562,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>392</v>
       </c>
@@ -10573,7 +10576,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>392</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>392</v>
       </c>
@@ -10601,7 +10604,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>392</v>
       </c>
@@ -10615,7 +10618,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>392</v>
       </c>
@@ -10629,7 +10632,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>392</v>
       </c>
@@ -10643,7 +10646,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>392</v>
       </c>
@@ -10657,7 +10660,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>392</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>392</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>392</v>
       </c>
@@ -10699,7 +10702,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>392</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>392</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>392</v>
       </c>
@@ -10741,7 +10744,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>392</v>
       </c>
@@ -10755,7 +10758,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>392</v>
       </c>
@@ -10769,7 +10772,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>392</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>392</v>
       </c>
@@ -10797,7 +10800,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -10811,7 +10814,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>392</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>392</v>
       </c>
@@ -10839,7 +10842,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>392</v>
       </c>
@@ -10853,7 +10856,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>392</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -10881,7 +10884,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>392</v>
       </c>
@@ -10895,7 +10898,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>392</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>392</v>
       </c>
@@ -10923,7 +10926,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>392</v>
       </c>
@@ -10937,7 +10940,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>392</v>
       </c>
@@ -10951,7 +10954,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>392</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>392</v>
       </c>
@@ -10979,7 +10982,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>392</v>
       </c>
@@ -10993,7 +10996,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>392</v>
       </c>
@@ -11007,7 +11010,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>392</v>
       </c>
@@ -11021,7 +11024,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>392</v>
       </c>
@@ -11035,7 +11038,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>392</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>392</v>
       </c>
@@ -11063,7 +11066,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>392</v>
       </c>
@@ -11077,7 +11080,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>392</v>
       </c>
@@ -11091,7 +11094,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>392</v>
       </c>
@@ -11105,7 +11108,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>392</v>
       </c>
@@ -11119,7 +11122,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>392</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>392</v>
       </c>
@@ -11147,7 +11150,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>392</v>
       </c>
@@ -11161,7 +11164,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>392</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>392</v>
       </c>
@@ -11189,7 +11192,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>392</v>
       </c>
@@ -11203,7 +11206,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>392</v>
       </c>
@@ -11217,7 +11220,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>392</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>392</v>
       </c>
@@ -11245,7 +11248,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>392</v>
       </c>
@@ -11259,7 +11262,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>392</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>392</v>
       </c>
@@ -11287,7 +11290,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>392</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>392</v>
       </c>
@@ -11315,7 +11318,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>392</v>
       </c>
@@ -11329,7 +11332,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>392</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>392</v>
       </c>
@@ -11357,7 +11360,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>392</v>
       </c>
@@ -11371,7 +11374,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>392</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>392</v>
       </c>
@@ -11399,7 +11402,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>392</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>392</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>392</v>
       </c>
@@ -11441,7 +11444,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>392</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>392</v>
       </c>
@@ -11469,7 +11472,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>392</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>392</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>392</v>
       </c>
@@ -11511,7 +11514,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>392</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>392</v>
       </c>
@@ -11539,7 +11542,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>392</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>392</v>
       </c>
@@ -11567,7 +11570,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>392</v>
       </c>
@@ -11581,7 +11584,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>392</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>392</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>392</v>
       </c>
@@ -11623,7 +11626,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>392</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>392</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>392</v>
       </c>
@@ -11665,7 +11668,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>392</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>392</v>
       </c>
@@ -11693,7 +11696,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>392</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>392</v>
       </c>
@@ -11721,7 +11724,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>392</v>
       </c>
@@ -11735,7 +11738,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>392</v>
       </c>
@@ -11749,7 +11752,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>392</v>
       </c>
@@ -11763,7 +11766,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>392</v>
       </c>
@@ -11777,7 +11780,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>392</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>392</v>
       </c>
@@ -11805,7 +11808,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>392</v>
       </c>
@@ -11819,7 +11822,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>392</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>392</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>392</v>
       </c>
@@ -11861,7 +11864,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>392</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>392</v>
       </c>
@@ -11889,7 +11892,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>392</v>
       </c>
@@ -11903,7 +11906,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>392</v>
       </c>
@@ -11917,7 +11920,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>392</v>
       </c>
@@ -11931,7 +11934,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>392</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>392</v>
       </c>
@@ -11959,7 +11962,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>392</v>
       </c>
@@ -11973,7 +11976,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>392</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>392</v>
       </c>
@@ -12001,7 +12004,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>392</v>
       </c>
@@ -12015,7 +12018,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>392</v>
       </c>
@@ -12029,7 +12032,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>392</v>
       </c>
@@ -12043,7 +12046,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>392</v>
       </c>
@@ -12057,7 +12060,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>392</v>
       </c>
@@ -12071,7 +12074,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>392</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>392</v>
       </c>
@@ -12099,7 +12102,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>392</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>392</v>
       </c>
@@ -12127,7 +12130,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>392</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>392</v>
       </c>
@@ -12155,7 +12158,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>392</v>
       </c>
@@ -12169,7 +12172,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>392</v>
       </c>
@@ -12183,7 +12186,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>392</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>392</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>392</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>392</v>
       </c>
@@ -12239,7 +12242,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>392</v>
       </c>
@@ -12253,7 +12256,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>392</v>
       </c>
@@ -12267,7 +12270,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>392</v>
       </c>
@@ -12281,7 +12284,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>392</v>
       </c>
@@ -12295,7 +12298,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>392</v>
       </c>
@@ -12309,7 +12312,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>392</v>
       </c>
@@ -12323,7 +12326,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>392</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>392</v>
       </c>
@@ -12351,7 +12354,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>392</v>
       </c>
@@ -12365,7 +12368,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>392</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>392</v>
       </c>
@@ -12393,7 +12396,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>392</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>392</v>
       </c>
@@ -12421,7 +12424,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>392</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>392</v>
       </c>
@@ -12449,7 +12452,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>392</v>
       </c>
@@ -12463,7 +12466,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>392</v>
       </c>
@@ -12477,7 +12480,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>392</v>
       </c>
@@ -12491,7 +12494,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>392</v>
       </c>
@@ -12505,7 +12508,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>392</v>
       </c>
@@ -12519,7 +12522,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>392</v>
       </c>
@@ -12533,7 +12536,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>392</v>
       </c>
@@ -12547,7 +12550,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>392</v>
       </c>
@@ -12561,7 +12564,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>392</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>392</v>
       </c>
@@ -12589,7 +12592,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>392</v>
       </c>
@@ -12603,7 +12606,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>392</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>392</v>
       </c>
@@ -12631,7 +12634,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>392</v>
       </c>
@@ -12645,7 +12648,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>392</v>
       </c>
@@ -12659,7 +12662,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>392</v>
       </c>
@@ -12673,7 +12676,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>392</v>
       </c>
@@ -12687,7 +12690,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>392</v>
       </c>
@@ -12701,7 +12704,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>392</v>
       </c>
@@ -12715,7 +12718,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>392</v>
       </c>
@@ -12729,7 +12732,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>392</v>
       </c>
@@ -12743,7 +12746,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>392</v>
       </c>
@@ -12757,7 +12760,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>392</v>
       </c>
@@ -12771,7 +12774,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>392</v>
       </c>
@@ -12785,7 +12788,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>392</v>
       </c>
@@ -12799,7 +12802,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>392</v>
       </c>
@@ -12813,7 +12816,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>392</v>
       </c>
@@ -12827,7 +12830,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>392</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>392</v>
       </c>
@@ -12855,7 +12858,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>392</v>
       </c>
@@ -12869,7 +12872,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>392</v>
       </c>
@@ -12883,7 +12886,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>392</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>392</v>
       </c>
@@ -12911,7 +12914,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>392</v>
       </c>
@@ -12925,7 +12928,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>392</v>
       </c>
@@ -12939,7 +12942,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>392</v>
       </c>
@@ -12953,7 +12956,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>392</v>
       </c>
@@ -12967,7 +12970,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>392</v>
       </c>
@@ -12981,7 +12984,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>392</v>
       </c>
@@ -12995,7 +12998,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>392</v>
       </c>
@@ -13009,7 +13012,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>392</v>
       </c>
@@ -13023,7 +13026,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>392</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>392</v>
       </c>
@@ -13051,7 +13054,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>392</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>392</v>
       </c>
@@ -13079,7 +13082,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>392</v>
       </c>
@@ -13093,7 +13096,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>392</v>
       </c>
@@ -13107,7 +13110,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>392</v>
       </c>
@@ -13121,7 +13124,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>392</v>
       </c>
@@ -13135,7 +13138,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>392</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>392</v>
       </c>
@@ -13163,7 +13166,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>392</v>
       </c>
@@ -13177,7 +13180,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>392</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>392</v>
       </c>
@@ -13219,7 +13222,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>392</v>
       </c>
@@ -13233,7 +13236,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>392</v>
       </c>
@@ -13247,7 +13250,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>392</v>
       </c>
@@ -13261,7 +13264,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>392</v>
       </c>
@@ -13275,7 +13278,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>392</v>
       </c>
@@ -13289,7 +13292,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>392</v>
       </c>
@@ -13303,7 +13306,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>392</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>392</v>
       </c>
@@ -13331,7 +13334,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>392</v>
       </c>
@@ -13345,7 +13348,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>392</v>
       </c>
@@ -13359,7 +13362,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>392</v>
       </c>
@@ -13373,7 +13376,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>392</v>
       </c>
@@ -13387,7 +13390,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>392</v>
       </c>
@@ -13401,7 +13404,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>392</v>
       </c>
@@ -13415,7 +13418,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>392</v>
       </c>
@@ -13429,7 +13432,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>392</v>
       </c>
@@ -13443,7 +13446,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>392</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>392</v>
       </c>
@@ -13471,7 +13474,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>392</v>
       </c>
@@ -13485,7 +13488,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>392</v>
       </c>
@@ -13499,7 +13502,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -13513,7 +13516,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>392</v>
       </c>
@@ -13527,7 +13530,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>392</v>
       </c>
@@ -13541,7 +13544,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -13555,7 +13558,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -13569,7 +13572,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>392</v>
       </c>
@@ -13583,7 +13586,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>392</v>
       </c>
@@ -13597,7 +13600,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -13625,7 +13628,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>392</v>
       </c>
@@ -13639,7 +13642,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>392</v>
       </c>
@@ -13653,7 +13656,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>392</v>
       </c>
@@ -13667,7 +13670,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>392</v>
       </c>
@@ -13681,7 +13684,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>392</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>392</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>392</v>
       </c>
@@ -13723,7 +13726,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>392</v>
       </c>
@@ -13737,7 +13740,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>392</v>
       </c>
@@ -13751,7 +13754,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>392</v>
       </c>
@@ -13765,7 +13768,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>392</v>
       </c>
@@ -13779,7 +13782,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>392</v>
       </c>
@@ -13793,7 +13796,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>392</v>
       </c>
@@ -13807,7 +13810,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>392</v>
       </c>
@@ -13821,7 +13824,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>392</v>
       </c>
@@ -13835,7 +13838,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>392</v>
       </c>
@@ -13849,7 +13852,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>392</v>
       </c>
@@ -13863,7 +13866,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>392</v>
       </c>
@@ -13877,7 +13880,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>392</v>
       </c>
@@ -13891,7 +13894,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>392</v>
       </c>
@@ -13905,7 +13908,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>392</v>
       </c>
@@ -13919,7 +13922,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>392</v>
       </c>
@@ -13933,7 +13936,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>392</v>
       </c>
@@ -13947,7 +13950,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>392</v>
       </c>
@@ -13961,7 +13964,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>392</v>
       </c>
@@ -13975,7 +13978,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>392</v>
       </c>
@@ -13989,7 +13992,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>392</v>
       </c>
@@ -14003,7 +14006,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>392</v>
       </c>
@@ -14017,7 +14020,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>392</v>
       </c>
@@ -14031,7 +14034,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>392</v>
       </c>
@@ -14045,7 +14048,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>392</v>
       </c>
@@ -14059,7 +14062,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>392</v>
       </c>
@@ -14073,7 +14076,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>392</v>
       </c>
@@ -14087,7 +14090,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>392</v>
       </c>
@@ -14101,7 +14104,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>392</v>
       </c>
@@ -14115,7 +14118,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>392</v>
       </c>
@@ -14129,7 +14132,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>392</v>
       </c>
@@ -14143,7 +14146,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>392</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>392</v>
       </c>
@@ -14171,7 +14174,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>392</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>392</v>
       </c>
@@ -14199,7 +14202,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>392</v>
       </c>
@@ -14213,7 +14216,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>392</v>
       </c>
@@ -14227,7 +14230,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>392</v>
       </c>
@@ -14241,7 +14244,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>392</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>392</v>
       </c>
@@ -14269,7 +14272,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>392</v>
       </c>
@@ -14283,7 +14286,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>392</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>392</v>
       </c>
@@ -14311,7 +14314,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>392</v>
       </c>
@@ -14325,7 +14328,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>392</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>392</v>
       </c>
@@ -14353,7 +14356,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>392</v>
       </c>
@@ -14367,7 +14370,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>392</v>
       </c>
@@ -14381,7 +14384,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>392</v>
       </c>
@@ -14395,7 +14398,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>392</v>
       </c>
@@ -14409,7 +14412,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>392</v>
       </c>
@@ -14423,7 +14426,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>392</v>
       </c>
@@ -14437,7 +14440,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>392</v>
       </c>
@@ -14451,7 +14454,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>392</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>392</v>
       </c>
@@ -14479,7 +14482,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>392</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>392</v>
       </c>
@@ -14507,7 +14510,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>392</v>
       </c>
@@ -14521,7 +14524,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>392</v>
       </c>
@@ -14535,7 +14538,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>392</v>
       </c>
@@ -14549,7 +14552,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>392</v>
       </c>
@@ -14563,7 +14566,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>392</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>392</v>
       </c>
@@ -14591,7 +14594,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>392</v>
       </c>
@@ -14605,7 +14608,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>392</v>
       </c>
@@ -14619,7 +14622,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>392</v>
       </c>
@@ -14633,7 +14636,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>392</v>
       </c>
@@ -14647,7 +14650,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>392</v>
       </c>
@@ -14661,7 +14664,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>392</v>
       </c>
@@ -14675,7 +14678,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>392</v>
       </c>
@@ -14689,7 +14692,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>392</v>
       </c>
@@ -14703,7 +14706,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>392</v>
       </c>
@@ -14717,7 +14720,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>392</v>
       </c>
@@ -14731,7 +14734,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>392</v>
       </c>
@@ -14745,7 +14748,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>392</v>
       </c>
@@ -14759,7 +14762,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>392</v>
       </c>
@@ -14773,7 +14776,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>392</v>
       </c>
@@ -14787,7 +14790,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>392</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>392</v>
       </c>
@@ -14815,7 +14818,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>392</v>
       </c>
@@ -14829,7 +14832,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>392</v>
       </c>
@@ -14843,7 +14846,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>392</v>
       </c>
@@ -14857,7 +14860,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>392</v>
       </c>
@@ -14871,7 +14874,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>392</v>
       </c>
@@ -14885,7 +14888,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>392</v>
       </c>
@@ -14899,7 +14902,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>392</v>
       </c>
@@ -14913,7 +14916,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>392</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>392</v>
       </c>
@@ -14941,7 +14944,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>392</v>
       </c>
@@ -14955,7 +14958,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>392</v>
       </c>
@@ -14969,7 +14972,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>392</v>
       </c>
@@ -14983,7 +14986,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>392</v>
       </c>
@@ -14997,7 +15000,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>392</v>
       </c>
@@ -15011,7 +15014,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>392</v>
       </c>
@@ -15025,7 +15028,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>392</v>
       </c>
@@ -15039,7 +15042,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>392</v>
       </c>
@@ -15053,7 +15056,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>392</v>
       </c>
@@ -15067,7 +15070,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>392</v>
       </c>
@@ -15081,7 +15084,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>392</v>
       </c>
@@ -15095,7 +15098,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>392</v>
       </c>
@@ -15109,7 +15112,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>392</v>
       </c>
@@ -15123,7 +15126,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>392</v>
       </c>
@@ -15137,7 +15140,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>392</v>
       </c>
@@ -15151,7 +15154,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>392</v>
       </c>
@@ -15165,7 +15168,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>392</v>
       </c>
@@ -15179,7 +15182,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>392</v>
       </c>
@@ -15193,7 +15196,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>392</v>
       </c>
@@ -15207,7 +15210,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>392</v>
       </c>
@@ -15221,7 +15224,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>392</v>
       </c>
@@ -15235,7 +15238,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>392</v>
       </c>
@@ -15249,7 +15252,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>392</v>
       </c>
@@ -15263,7 +15266,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>392</v>
       </c>
@@ -15277,7 +15280,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>392</v>
       </c>
@@ -15291,7 +15294,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>392</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>392</v>
       </c>
@@ -15319,7 +15322,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>392</v>
       </c>
@@ -15333,7 +15336,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>392</v>
       </c>
@@ -15347,7 +15350,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>392</v>
       </c>
@@ -15361,7 +15364,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>392</v>
       </c>
@@ -15375,7 +15378,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>392</v>
       </c>
@@ -15389,7 +15392,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>392</v>
       </c>
@@ -15403,7 +15406,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>392</v>
       </c>
@@ -15417,7 +15420,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>392</v>
       </c>
@@ -15431,7 +15434,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>392</v>
       </c>
@@ -15445,7 +15448,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>392</v>
       </c>
@@ -15459,7 +15462,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>392</v>
       </c>
@@ -15473,7 +15476,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>392</v>
       </c>
@@ -15487,7 +15490,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>392</v>
       </c>
@@ -15501,7 +15504,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>392</v>
       </c>
@@ -15515,7 +15518,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>392</v>
       </c>
@@ -15529,7 +15532,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>392</v>
       </c>
@@ -15543,7 +15546,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>392</v>
       </c>
@@ -15557,7 +15560,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>392</v>
       </c>
@@ -15571,7 +15574,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>392</v>
       </c>
@@ -15585,7 +15588,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>392</v>
       </c>
@@ -15599,7 +15602,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>392</v>
       </c>
@@ -15613,7 +15616,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>392</v>
       </c>
@@ -15627,7 +15630,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>392</v>
       </c>
@@ -15641,7 +15644,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>392</v>
       </c>
@@ -15655,7 +15658,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>392</v>
       </c>
@@ -15669,7 +15672,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>392</v>
       </c>
@@ -15683,7 +15686,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>392</v>
       </c>
@@ -15697,7 +15700,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>392</v>
       </c>
@@ -15711,7 +15714,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>392</v>
       </c>
@@ -15725,7 +15728,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>392</v>
       </c>
@@ -15739,7 +15742,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>392</v>
       </c>
@@ -15753,7 +15756,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>392</v>
       </c>
@@ -15767,7 +15770,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>392</v>
       </c>
@@ -15781,7 +15784,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>392</v>
       </c>
@@ -15795,7 +15798,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>392</v>
       </c>
@@ -15809,7 +15812,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>392</v>
       </c>
@@ -15823,7 +15826,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>392</v>
       </c>
@@ -15837,7 +15840,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>392</v>
       </c>
@@ -15851,7 +15854,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>392</v>
       </c>
@@ -15865,7 +15868,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>392</v>
       </c>
@@ -15879,7 +15882,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>392</v>
       </c>
@@ -15893,7 +15896,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>392</v>
       </c>
@@ -15907,7 +15910,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>392</v>
       </c>
@@ -15921,7 +15924,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>392</v>
       </c>
@@ -15935,7 +15938,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>392</v>
       </c>
@@ -15949,7 +15952,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>392</v>
       </c>
@@ -15963,7 +15966,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>392</v>
       </c>
@@ -15977,7 +15980,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>392</v>
       </c>
@@ -15991,7 +15994,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>392</v>
       </c>
@@ -16005,7 +16008,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>392</v>
       </c>
@@ -16019,7 +16022,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>392</v>
       </c>
@@ -16033,7 +16036,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>392</v>
       </c>
@@ -16047,7 +16050,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>392</v>
       </c>
@@ -16061,7 +16064,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>392</v>
       </c>
@@ -16075,7 +16078,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>392</v>
       </c>
@@ -16089,7 +16092,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>392</v>
       </c>
@@ -16103,7 +16106,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>392</v>
       </c>
@@ -16117,7 +16120,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>392</v>
       </c>
@@ -16131,7 +16134,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>392</v>
       </c>
@@ -16145,7 +16148,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>392</v>
       </c>
@@ -16159,7 +16162,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>392</v>
       </c>
@@ -16173,7 +16176,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>392</v>
       </c>
@@ -16187,7 +16190,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>392</v>
       </c>
@@ -16201,7 +16204,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>392</v>
       </c>
@@ -16215,7 +16218,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>392</v>
       </c>
@@ -16229,7 +16232,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>392</v>
       </c>
@@ -16243,7 +16246,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>392</v>
       </c>
@@ -16257,7 +16260,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>392</v>
       </c>
@@ -16271,7 +16274,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>392</v>
       </c>
@@ -16285,7 +16288,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>392</v>
       </c>
@@ -16299,7 +16302,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>392</v>
       </c>
@@ -16313,7 +16316,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>392</v>
       </c>
@@ -16327,7 +16330,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>392</v>
       </c>
@@ -16341,7 +16344,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>392</v>
       </c>
@@ -16355,7 +16358,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>392</v>
       </c>
@@ -16369,7 +16372,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>392</v>
       </c>
@@ -16383,7 +16386,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>392</v>
       </c>
@@ -16397,7 +16400,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>392</v>
       </c>
@@ -16411,7 +16414,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>392</v>
       </c>
@@ -16425,7 +16428,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>392</v>
       </c>
@@ -16439,7 +16442,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>392</v>
       </c>
@@ -16453,7 +16456,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>392</v>
       </c>
@@ -16467,7 +16470,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>392</v>
       </c>
@@ -16481,7 +16484,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>392</v>
       </c>
@@ -16495,7 +16498,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>392</v>
       </c>
@@ -16509,7 +16512,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>392</v>
       </c>
@@ -16523,7 +16526,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>392</v>
       </c>
@@ -16537,7 +16540,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>392</v>
       </c>
@@ -16551,7 +16554,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>392</v>
       </c>
@@ -16565,7 +16568,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>392</v>
       </c>
@@ -16579,7 +16582,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>392</v>
       </c>
@@ -16593,7 +16596,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>392</v>
       </c>
@@ -16607,7 +16610,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>392</v>
       </c>
@@ -16621,7 +16624,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>392</v>
       </c>
@@ -16635,7 +16638,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>392</v>
       </c>
@@ -16649,7 +16652,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>392</v>
       </c>
@@ -16663,7 +16666,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>392</v>
       </c>
@@ -16677,7 +16680,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>392</v>
       </c>
@@ -16691,7 +16694,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>392</v>
       </c>
@@ -16705,7 +16708,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>392</v>
       </c>
@@ -16719,7 +16722,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>392</v>
       </c>
@@ -16733,7 +16736,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>392</v>
       </c>
@@ -16747,7 +16750,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>392</v>
       </c>
@@ -16761,7 +16764,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>392</v>
       </c>
@@ -16775,7 +16778,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>392</v>
       </c>
@@ -16789,7 +16792,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>392</v>
       </c>
@@ -16803,7 +16806,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>392</v>
       </c>
@@ -16817,7 +16820,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>392</v>
       </c>
@@ -16831,7 +16834,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>392</v>
       </c>
@@ -16845,7 +16848,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>392</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>392</v>
       </c>
@@ -16873,7 +16876,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>392</v>
       </c>
@@ -16887,7 +16890,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>392</v>
       </c>
@@ -16901,7 +16904,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>392</v>
       </c>
@@ -16915,7 +16918,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>392</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>392</v>
       </c>
@@ -16943,7 +16946,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>392</v>
       </c>
@@ -16957,7 +16960,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>392</v>
       </c>
@@ -16971,7 +16974,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>392</v>
       </c>
@@ -16985,7 +16988,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>392</v>
       </c>
@@ -16999,7 +17002,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>392</v>
       </c>
@@ -17013,7 +17016,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>392</v>
       </c>
@@ -17027,7 +17030,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>392</v>
       </c>
@@ -17041,7 +17044,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>392</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>392</v>
       </c>
@@ -17069,7 +17072,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>392</v>
       </c>
@@ -17083,7 +17086,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>392</v>
       </c>
@@ -17097,7 +17100,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>392</v>
       </c>
@@ -17111,7 +17114,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>392</v>
       </c>
@@ -17125,7 +17128,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>392</v>
       </c>
@@ -17139,7 +17142,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>392</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>392</v>
       </c>
@@ -17167,7 +17170,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>392</v>
       </c>
@@ -17183,10 +17186,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>